--- a/500all/speech_level/speeches_CHRG-114hhrg99469.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99469.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon [presiding]. The subcommittee will come to order.    Members present will be permitted to submit written statements to be included in the official hearing record. Without objection, the hearing record will remain open for 5 calendar days to allow statements, questions, and extraneous materials for the record, subject to the length limitation and the rules.    The U.S.-India relationship can be characterized simply as one of enormous potential. It is in the interest of this subcommittee and the United States to see democratic societies prosper, and it is because of this view that India is a natural partner for the United States. The 1.3-billion-person nation has become the focus of U.S. trade and business opportunity. People-to-people connections between the two countries undergrid and bolster this relationship.    As a growing military power, India is also a critical global security partner with the potential to help avert military confrontation and conflict in the Indo-Pacific region. Indeed, both the United States and India recognize the potential partnerships between the world's fastest-growing large economy and the world's most powerful economy.    In light of this, we should expect that bilateral trade has much more room to grow. We convene this hearing today to discuss the U.S.-India economic relationship. Trade in goods and services has ballooned between 2005 and 2015. Both countries have prioritized the economic relationship, aiming to reach $500 billion in bilateral trade in goods and services by 2024, a fivefold increase from the 2014 level.    To achieve this, it is greatly important that India continue substantive economic reform by opening its markets, but substantive challenges remain, including speculation about India's domestic growth products, prospects, limits to market accessibility, and concerns about intellectual property rights protection.    When Prime Minister Modi came into power in 2014, he shouldered high expectations for an economic transformation. While his leadership continues to hold the promise of a new economic era for India, observers have become frustrated with the slow pace of reform. India's economic growth rate at 7.6 percent will not be enough to generate sufficient jobs for India's exploding population of young people.    On top of that, these issues are exacerbated by an overbearing and corrupt bureaucracy, insufficient infrastructure development, heavy regulation, and high social spending. Meaningful reform has been hindered by domestic policies and parliamentary gridlock.    A critical component of India's economic reform will be its involvement in multilateral economic institutions. India has for 20 years shown an interest in joining the Asia-Pacific Economic Cooperation, or APEC, a regional organization that supports economic growth through free and open trade and investment, promoting regional integration and encouraging economic cooperation, among other things.    This has been an ambition that our Executive Branch has welcomed and encouraged. To assist in accelerating the relationship toward this goal, I plan on introducing a bill to support India's membership in APEC this week. Thanks to my colleague Mr. Bera, who has been working with me on putting this bill together.    Our two countries are also in the midst of discussions on a high-standards Bilateral Investment Treaty, or BIT. If achievable, the BIT would deepen our economic relationship and support economic growth and job creation in both countries.    These sorts of positive currents and potential achievements for Indian economic policy would illustrate a movement toward greater openness and harmonization with global free market principles that will be beneficial to India and the U.S.-India relationship and both of our economies.    Such reforms would pave the way to the accelerated growth India needs, and the increased openness would allow our countries to exploit our comparative advantages. Experts estimate that a successful BIT agreement, for example, could increase U.S. goods exports to India by 50 percent or more and could double service exports. A successful BIT could even pave the way forward toward a free trade agreement with India.    Despite the slow pace of reform, India's economy remains a bright spot amidst global economic troubles, particularly for developing nations. It is still the world's fastest-growing large economy, and I look forward to hearing about the U.S.-India economic relationship and the opportunities and challenges that encompass it, and how the United States can best support and nurture the bilateral economic relationship.    I would like to recognize Mr. Sherman for any opening statement he would like to have.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman. Thank you for holding this important hearing.    With a population of 1\\1/4\\ billion people, India is the world's largest democracy, the largest democracy in history. Some 550 million people voted in the last nationwide elections.    When you look at the people of India, you see that many have moved outside India to create a diaspora. Everywhere in the world that diaspora is considerably more educated and considerably wealthier than the country in which it is located. In fact, the only place you can go to find a poor person of Indian heritage is India. I am confident that, as India gets better governance, it will emerge as one of the richer countries in the world.    The United States and India share many core values, including religious pluralism, individual freedom, the rule of law, and electoral democracy, and both have rejected and are working together against radical Islamic extremism. The Indo-American community in the United States is a vital link between the two countries and has helped build bridges. New Delhi has played an important role in regional peace and security. Its growing economic power adds to its ability to deal with strategic issues.    India's growth path shows that it can be compared to China. I used to be a business advisor and now and then give free business advice to those of my constituents foolish enough to ask me for it, and I pointed out that an investment in India makes a lot more sense than one in China. In India you have the rule of law. In India you also have the long-term stability, messy as it is, of governing institutions.    The United States during the Great Depression showed that democracy can survive a 20-, 30-, even 40-percent decline in GDP. I do not think that a system of government built around a party that got power by claiming to be the vanguard of the proletariat, but now says it is not, could survive even zero-percent economic growth for a year or two. So, while China gives this image of stability, it does not have a system which could explain to its people why certain individuals hold positions of power.    Over the past decades, we have seen the U.S. work to bring India out from nuclear isolation and, of course, increase defense and security cooperation. The International Energy Administration estimates that India will require $2.1 trillion of investment in its power sector. Of course, India is looking to develop its own oil and natural gas resources and is seeking $25 billion of investment there. I want to do everything possible to make sure that the tremendous amount of equipment that is necessary for this power expansion is produced in America by American workers.    I was one of 83 Members of Congress, along with at least several people in this room, to urge that this House provide Prime Minister Modi with the highest honor we can provide a foreign leader, and that is an invitation to address a Joint Session of Congress. While the schedule couldn't be worked out last time, I look forward to hearing Prime Minister Modi while sitting on the House Floor.    We look forward to expanding our trade relationship, which is now at only $110 billion. I believe the Vice President and others have announced the goal of expanding that to $500 billion of bilateral trade.    But I will point out that this has got to be balanced trade, that the people of this country have, in case we haven't noticed, risen to totally repudiate the trade policies that we have followed so far, which are misnamed ``free trade.'' Every single Presidential candidate with over 150 delegates has absolutely repudiated the trade policy that has guided us over the last 20 years. Now some of them have done it rather reluctantly, but all of those who are still significant candidates have done so.    So, the people of this country look forward to expanding trade around the world on a balanced basis, not with the United States running huge trade deficits. It will take a completely different model of trade to achieve that. Those who come to the American people and just say all trade is good, no matter whether it is balanced or not, will be, have been utterly repudiated by the people of this country.    And I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412512</t>
   </si>
   <si>
-    <t>Ami Bera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bera. Sure. Thank you, Mr. Chairman and the ranking member.    I had a chance to travel to India with the chairman of the subcommittee as well as the chairman of the full committee last year and, then, recently returned to India a few months ago. And you still feel the sense of optimism in India, the sense that the economy, while it is not a straight shot, is still quite vigorous and vibrant.    I think the chairman's leadership on the resolution that we will be introducing this week to really encourage India's joining of APEC, that probably is the next logical step as they undergo the economic reforms and undergo much of the agenda that Prime Minister Modi has put out there.    For us to realize this potential that both the President and Vice President have said of creating the defining relationship in the 21st century and trying to take the bilateral trade from $100 billion to $500 billion, you know, APEC membership is a good next step. It will take us a little bit longer to get that high-standard Bilateral Investment Treaty, but that certainly is an aspirational goal for both countries and really can set the framework for bilateral trade.    Now, on our side, I urge patience. The economic reforms in India will take time. I think we have to look at this longer time horizon. On the Indian side, we encourage the Prime Minister to continue the economic reforms to ease the ability of our companies to do business, to put in good intellectual property and patent protections that don't hinder that investment and, also, to open up and ease the ability for U.S. resources and U.S. venture to help India realize its potential. I mean, these are all achievable goals. It requires patience on both sides of the Pacific. It requires open dialog. I remain very optimistic that we can reach those goals.    I look forward to hearing the testimony of witnesses who are all experts on this relationship.    Again, I will yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412560</t>
   </si>
   <si>
-    <t>Grace Meng</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Mr. Chairman and to our ranking member.    Thank you to our witnesses who are here today to testify on U.S.-India relations. I represent one of the largest Indian-American diasporas in Congress.    The people-to-people relationship has been a driving force behind bringing our countries closer together. Under this President, our countries have grown closer and we share renewed commitment to working together, particularly in the economic sphere. Principles of our joint commitment were laid out first in September 2014, when U.S. and Indian leaders committed to expanding and deepening the strategic partnership in a vision statement entitled ``Chalein Saath Saath: Forward Together We Go.'' Following President Obama's second state visit to India in January 2015, we released a joint statement outlining extensive, detailed commitment in a variety of industries.    But, while it is clear that there is a deep interest and commitment on both sides, there is still a lot of groundwork we must do to realize this vision. I look forward to hearing from you on how you see the status of this commitment from India and how we can best address some of the existing challenges.    Thank you, and I yield back.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>412521</t>
   </si>
   <si>
-    <t>Alan S. Lowenthal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you, Mr. Chairman.    And thank you, witnesses, for joining us today.    Sitting on this committee, I realize just what an increasingly-complex world in which we live, but how interdependent we are with our global neighbors, how we look forward to working to promote peace, security, economic growth, development.    With India especially, representing such a huge population, proportion of the world's population, I want to know how we can both influence and effectively advance both our national interest and at the same time do that in a way that improves our relationships. You know, there are many challenges in front of us in the world, on this globe, and this committee sees them all. But I want to hear how we can in this committee and Congress support better relationships with India, how we can support their economic development, their democratic aspirations, and not just of India, but really the democratic aspirations of the entire region and how we can work together for that.    And I yield back.</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Ayres</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ayres. Chairman Salmon, Ranking Member Sherman, and members of the subcommittee, thank you very much for the invitation to appear before you today on U.S. economic ties with India. I am honored to be part of this distinguished panel.    I shared in advance with the committee a recent Council on Foreign Relations Independent Task Force report for which I served as project director. I respectfully request that the report and my more detailed written statement be submitted for the record.    In the last 15 years, India has experienced significant economic growth, and the bilateral economic relationship has changed substantially. After several years hovering below the $100-billion level, in 2014 two-way trade in goods and services crossed that threshold and last year reached $107 billion. U.S. exports to India now support more than 180,000 American jobs, as Secretary of Commerce Penny Pritzker said last year.    U.S.-India defense trade has increased from zero to around $13 billion cumulatively. Technology and entrepreneurship are increasingly a bridge between both countries. At the same time, U.S.-India trade remains well below its potential, only a little more than one-tenth U.S.-China trade in goods and more on the scale of Taiwan or the Netherlands.    India and the United States also have market access differences. I do not intend to minimize these concerns, for they certainly exist, but I will focus my remarks on the future strategic horizon we should bear in mind, India's future potential.    According to International Monetary Fund data, India's GDP crossed the $2-trillion threshold in 2014. At market exchange rates, India was the world's ninth largest economy that year, surpassing Russia. India is now growing at around 7.3 percent annually, which in 2015 made India the fastest-growing major economy in the world, given China's slowdown.    India, as you know, does not fare as well when looking at per-capita GDP. When looking at per capita at market exchange rates, India's nearly $1700 level ranks it in the bottom third. Still, the prospect for India's middle class to grow substantially in the coming decades is not in doubt. A strong economic base will allow India to continue on its path of rising global power, including by enabling its military modernization, making the country a bulwark of democracy and stability in an expanded region from the Middle East to East Asia, where both are not always in ample supply.    I referred to the Council on Foreign Relations Independent Task Force. One of its top findings was that, if India can maintain its current growth rate, let alone attain sustained double digits, it has the potential over the next 20 to 30 years to follow China on the path to becoming another $10-trillion economy. Few countries have such potential.    India has its own political work to do to realize these ambitions and it will not be easy. These are challenges that the United States can do little about, but we have a clear stake in India achieving its ambitions.    The Task Force recommended that the United States elevate support for India's economic growth and its reform process to the highest bilateral priority. I will provide several recommendations for how to do this at the end of my testimony.    Preparing the United States for a more global India. We have a problem of underinvestment and insufficient attention to India in United States higher education, an economic preparedness issue for our own country. The ranking of top study-abroad destinations tells an obvious story about American interest in Europe, but China has overtaken Germany as a destination. Nearly twice as many American students head to Costa Rica for an experience abroad than to India.    Language enrollment data is yet more dispiriting. Students in U.S. colleges and universities do not sign up for Indian languages at the levels they do for languages like Arabic, Chinese, or Korean. Here is an example: Enrollments for Hindi were only 1800. All Indian languages combined were around 3,000. This means that the total enrollments in all Indian languages combined account for less than one-quarter those of Korean.    Let me offer now a few recommendations for U.S. policy on these issues. First, elevate support for India's economic growth to the highest bilateral priority on the U.S. agenda with India. Steps recommended by the CFR-sponsored Independent Task Force report include leadership of a global diplomatic effort to support India's entry into APEC; completion of a Bilateral Investment Treaty; high-level discussion of bilateral sectoral agreements such as in services; identification of a longer-term pathway to a free trade agreement or Indian membership in an expanded TPP as an equivalent; creation of initiatives that respond to Indian interest in domestic reform needs such as technical advice on infrastructure finance, and continued emphasis on defense trade and technology.    Second, as India becomes an increasingly-central global economy, the United States should work to integrate India in global economic institutions. I mentioned APEC. There are other institutions in which India should become a member, such as the OECD and the International Energy Agency.    Finally, prepare our next generation for an India in the global economy. Review Federal funding incentives to encourage study abroad in India and study of Indian languages.    Thank you very much, and I look forward to questions.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>Enterprise Institute, based here in Washington, DC. My comments today are my own and do not necessarily reflect the views of     Since our time is limited, I would like to take this opportunity to make four broad points on which I will then elaborate.    Number one, the U.S.-India relationship is a pivotal relationship for the future of the Asia-Pacific and, indeed, the world.    Number two, at a time of political turbulence, it is important for us not to lose sight of the economic principles that have helped make this country the strongest and most prosperous in human history. These include an openness to trade and a welcome mat for talented professionals from around the world.    Number three, after the election of Prime Minister Narendra Modi 2 years ago, India is on the cusp of change. The U.S. cannot determine the policies India will follow, but, by the force of its example and its advocacy, it can nudge India in the direction of the policies that will grow its economy, eradicate poverty, and make it one of America's major global trade partners.    Finally, number four, U.S. economic policy toward India should be tethered to twin goals, to help India achieve its economic potential and to strive to remain India's top trading partner in goods and services.    I will spend the remainder of my time to expanding briefly upon each of these four points.    The first, of course, is that the U.S.-India relationship is pivotal. Sandwiched between a rising China and the turmoil of Afghanistan and Pakistan, India represents an anchor of democratic stability in an uncertain part of the world.    The U.S. stakes in India go beyond economics. But, arguably, no aspect of the relationship is more important than the economic one. Simply put, the U.S. ought to view the goal of making India prosperous in a way similar to which it viewed South Korea, Japan, and Taiwan during the Cold War. This is part of a larger strategic goal which is important to the United States, given what is unfolding in Asia.    In purchasing power priority terms, India is currently the third largest economy, but, as a U.S. trading partner, it is only number 10 in terms of goods trade. I think that gap between those two numbers, number three and number 10, really sums up the challenge that we face, but also the opportunity for further growth.    In terms of India's own potential, though it has had 25 years of rapid growth of about 6 percent a year, in terms of per-capita income it remains at $5,700 a year in purchasing power terms, which is, to put it in perspective, less than half of China. So, again, we have seen quite a dramatic success story over the past 25 years, but there remains a lot of potential for further growth.    I also think that we should keep sight of our larger principles, particularly at a time of turbulence. Arguably, now more than ever, we need to stand by the ideas that have been the bedrock of prosperity for more than 200 years. This means leading by example in terms of openness to trade in both goods and services, while at the same time ceaselessly advocating for greater economic freedom in India. I would like to say, in particular, that some of the debates about Indian tech firms tend to lose sight of the fact that they have been an asset for U.S. competitiveness and Indian tech workers have been productive members of society.    India is on the cusp of change. In 2014, Narendra Modi was elected Prime Minister with India's first single-party majority in 30 years. Mr. Modi earned the reputation as an efficient business-friendly administrator. He has embarked upon reforms, but those reforms have not gone fast enough for many observers. Nonetheless, he is less than 2 years into a 5-year term and he remains the single best bet for India to achieve the economic transformation that it ought to achieve. And it remains in the United States' interest to back him as he makes these efforts.    Finally, to sum up, I would say that all U.S. policy goals, including some of those mentioned by Dr. Ayres, such as backing India's APEC membership, supporting a Bilateral Investment Treaty, I would add to that finding a way to work with India's most dynamic states such as Gujarat and Andhra Pradesh, and also working to enlarge global economic institutions, all of these exist within a larger framework, and that larger framework is two twin ambitions. The first is to help India achieve its economic potential, and the second is to continue to be India's top trade partner in goods and services in the foreseeable future.    Thank you very much.    Mr. Salmon. Thank you.    Mr. Rossow?</t>
   </si>
   <si>
-    <t>Rossow</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rossow. Thank you, Chairman Salmon, Ranking Member Sherman, members of the committee. Thank you for the opportunity to testify at this hearing on U.S.-India economic relations.    I will focus my remarks on two main issues that I think must be addressed in order to deepen our economic partnership with India and create new opportunities for American firms. First is that we have to bridge this gap that exists in our approaches to global trade, and the second is we must engage India's regional leaders more directly.    Since Prime Minister Modi took office in 2014, our bilateral relationship has strengthened mightily, though I think in surprising ways, ways that we didn't expect to see. We expected the Modi government to have a strong economic focus, which it has within political limitations. But I think what you could have expected was the establishment of a stronger ideological framework guiding the continued expansion of our strategic partnership. We now have a big disparity, shared security goals that guide that strategic partnership, highlighted I think by the Joint Strategic Vision on Asia-Pacific and the Indian Ocean Region signed last year. But we don't have a similar ideological construct that guides our economic engagement.    Now kind of following on what others have stated before me, but a few examples that highlight the lack of a common ground on global economic issues, today we are no further along than we were 8 years on signing this investment treaty; in fact, a little bit further away, since both the United States and India have amended our model treaties which I think take them further away than they were at the outset.    India is not part of any of the wider trade agreements that the United States is a party of, and a wide chasm remains between our positions on many issues in the World Trade Organization. Now, in truth, I think it is likely that the Indian Government will only begin to approach global trade talks more proactively once their agriculture and manufacturing industries become more globally competitive. The two sectors make up 70 percent of India's workforce, yet contribute only about 45 percent of India's GDP.    But there are a wider range of shared interests. Both countries are hotbeds of innovation. We both have strong services economies. Both have large net trade deficits, particularly with China. We face similar challenges in the way that we have been engaging on global trade issues, and our firms bring complementary to markets like sub-Saharan Africa. I think there is actually a foundation of issues that could create a bit of a more powerful economic narrative on why we should be partners rather than constantly fighting on these big global issues.    The second issue I want to highlight is the importance of developing a more robust whole-of-government strategy to engage India's powerful state regional leaders. State governments--I mean, I have already heard it a number of times today about Modi reform, has he done enough; has he not done enough?--state governments actually have a much deeper control on India's business environment outside of things like high-level market access than national leaders do. Issues like electricity, water, sanitation, infrastructure, industrial licenses, and law and order, these are all issues that the states actually govern far more than the Federal Government has a hand in.    India's two national parties, Congress and BJP, combined only control 16 of India's 29 states right now. With a few notable exceptions, most of these state leaders actually have very little vision today for what partnership with the United States looks like.    In addition to the strong impact on the local business environment, regional parties in India also have a strong influence on central government policymaking. Regional parties hold the majority of seats in the upper house of India's Parliament.    Also, while we talk about the BJP's electoral victory in the 2014 national election, it is the first time in 30 years that any party won a single-party majority in the lower house of Parliament. We can expect that in the not-too-distant future we will see coalition governments again, and these regional parties played a dramatic influence on policymaking in the last government under coalition governments.    Now taking a step back, I think the Modi government's track record on reforms is somewhat underappreciated. From the U.S. viewpoint, the day that he stepped into office there were four main areas of contention in our economic relationship: Contentious taxation policies; lack of progress on new market access reforms, particularly foreign equity caps; treatment of pharmaceutical patents, and the establishment of forced local content rules in several manufacturing sectors. Those are the four that I saw as really kind of driving the negative sentiments and the hope when Modi stepped into office.    I think 2 years later we have actually seen robust movement on cross-border taxation policies and at the same time dramatic improvement on foreign equity limitations. About 30 sectors have actually seen foreign equity limitations removed or lessened somewhat since he came into office, but we have seen less movement on local content rules in manufacturing and patent laws.    Now these are, of course, the economic agenda as it matters to American firms and policymakers. There are also other reforms that I think haven't been appreciated on this side of the ocean, but in terms of growing the Indian economy and providing new opportunities for American firms would do so. Liberalizing the oil and gas sector; they liberalized the coal sector; transparent auctions for the first time with public resources like spectrum and mining licenses; delicensing defense production of the private sector.    These reforms and India's relatively-high growth rates compared to other countries I think make it an important market to American firms, as has already been stated. Now our economic relationship going forward will benefit from forging a set of shared principles behind global economic issues and for better engagement with India's powerful state leaders.    I was also asked by the committee to offer a couple of recommendations for this committee and for Congress. And so, two things that I have in mind on that.    First, I think the pipeline of congressional visits is terrific, and I think using that kind of an opportunity to engage some of these regional leaders, as what happened with Prime Minister Modi, in fact, before he became the leader of the country, is important to maintain and build on, not just Delhi and Bengal and Bombay, but some of the other regional capitals as well.    Second, we have an election coming up. As I like to joke, you don't become Secretary of State based on your policy toward India. So, we don't really know what the next administration, whoever it is, what their position is going to be on key issues in India. But Congress will still be there, and there is going to be an important role to make sure that we maintain quickly and deeply with India after the election takes place.    So, thank you again for inviting me to appear before the subcommittee.</t>
   </si>
   <si>
@@ -151,9 +130,6 @@
     <t xml:space="preserve">    Ms. Ayres. I think, first of all, having the platform of Make in India is, first and foremost, designed to attract foreign direct investment into India. A lot of American companies that are manufacturing in India are taking advantage of that. So, it is actually helpful to the larger revenue of some American companies.    For example, General Motors announced $1-billion investment and a relocation of a factory last summer. Ford has one of their largest manufacturing facilities anywhere in the world in Gujarat. There is a long list of others.    Since the Make in India initiative was announced in September 2014, there has been a trickle of major investment announcements. And so, I think we would have to look at kind of individual sectors to see if there was anything that would preclude or prohibit or limit U.S. exports to India. So, I don't think it is possible to answer that in a blanket, kind of umbrella statement.    But, certainly, it is the case that this is a platform that is helpful to some American manufacturers who are looking to produce for this huge and growing Indian market.</t>
   </si>
   <si>
-    <t>Dhume</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Dhume. Let me take a quick stab at both of those. On the e-commerce, I would agree with what Rick said. It is important to keep in perspective that India's e-commerce market is one of the most interesting and one of the fastest-growing in the world. There was a statistic recently I saw which said that the top three e-commerce sites in India do more business than the top ten offline retailers combined. One of those top three is Amazon.</t>
   </si>
   <si>
@@ -277,9 +253,6 @@
     <t>400071</t>
   </si>
   <si>
-    <t>Steve Chabot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chabot. I have no idea.</t>
   </si>
   <si>
@@ -347,9 +320,6 @@
   </si>
   <si>
     <t>412532</t>
-  </si>
-  <si>
-    <t>Tulsi Gabbard</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Aloha. Welcome.    Since 2008, the U.S. and India have signed more than $10 billion in defense contracts, and the Defense Trade and Technology Initiative has been a priority in these bilateral security relations. Especially now with Secretary Carter as our Secretary of Defense, I think this has continued to be a priority.    Can you speak to your assessment of how the DTTI is working and, if there are impediments, what are they and how can they be overcome?</t>
@@ -784,11 +754,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -808,13 +776,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -836,11 +802,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -860,13 +824,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -888,11 +850,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -912,13 +872,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -940,11 +898,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -964,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -992,11 +946,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1016,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1044,11 +994,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1070,11 +1018,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1094,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1122,11 +1066,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1146,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1174,11 +1114,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1198,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1226,11 +1162,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1250,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
         <v>35</v>
-      </c>
-      <c r="H20" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1278,11 +1210,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1302,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1328,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1356,11 +1282,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1380,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1408,11 +1330,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1432,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1460,11 +1378,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1484,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1512,11 +1426,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1536,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1562,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1588,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1614,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1640,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1666,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1692,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1718,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1744,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1770,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1796,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1822,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1848,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1874,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1900,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1926,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1952,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1978,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2004,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2030,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2056,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2082,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2108,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2134,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2160,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2186,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2212,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2238,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2264,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2290,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2316,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2342,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2370,11 +2218,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2394,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
-      </c>
-      <c r="G64" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2422,11 +2266,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2446,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2472,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2498,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2524,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2550,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
-      </c>
-      <c r="G70" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2578,11 +2410,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2602,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>87</v>
-      </c>
-      <c r="H72" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2628,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2654,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2682,11 +2506,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2706,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2732,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2758,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2784,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2810,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
-      </c>
-      <c r="G80" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2836,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
-      </c>
-      <c r="G81" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2862,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2888,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2914,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
-      </c>
-      <c r="G84" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2940,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2968,11 +2770,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2992,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>110</v>
-      </c>
-      <c r="G87" t="s">
-        <v>111</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3018,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3044,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>110</v>
-      </c>
-      <c r="G89" t="s">
-        <v>111</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3070,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3096,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>110</v>
-      </c>
-      <c r="G91" t="s">
-        <v>111</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3122,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
-      </c>
-      <c r="G92" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3148,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>110</v>
-      </c>
-      <c r="G93" t="s">
-        <v>111</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3176,11 +2962,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3200,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3228,11 +3010,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3252,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3280,11 +3058,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99469.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99469.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon [presiding]. The subcommittee will come to order.    Members present will be permitted to submit written statements to be included in the official hearing record. Without objection, the hearing record will remain open for 5 calendar days to allow statements, questions, and extraneous materials for the record, subject to the length limitation and the rules.    The U.S.-India relationship can be characterized simply as one of enormous potential. It is in the interest of this subcommittee and the United States to see democratic societies prosper, and it is because of this view that India is a natural partner for the United States. The 1.3-billion-person nation has become the focus of U.S. trade and business opportunity. People-to-people connections between the two countries undergrid and bolster this relationship.    As a growing military power, India is also a critical global security partner with the potential to help avert military confrontation and conflict in the Indo-Pacific region. Indeed, both the United States and India recognize the potential partnerships between the world's fastest-growing large economy and the world's most powerful economy.    In light of this, we should expect that bilateral trade has much more room to grow. We convene this hearing today to discuss the U.S.-India economic relationship. Trade in goods and services has ballooned between 2005 and 2015. Both countries have prioritized the economic relationship, aiming to reach $500 billion in bilateral trade in goods and services by 2024, a fivefold increase from the 2014 level.    To achieve this, it is greatly important that India continue substantive economic reform by opening its markets, but substantive challenges remain, including speculation about India's domestic growth products, prospects, limits to market accessibility, and concerns about intellectual property rights protection.    When Prime Minister Modi came into power in 2014, he shouldered high expectations for an economic transformation. While his leadership continues to hold the promise of a new economic era for India, observers have become frustrated with the slow pace of reform. India's economic growth rate at 7.6 percent will not be enough to generate sufficient jobs for India's exploding population of young people.    On top of that, these issues are exacerbated by an overbearing and corrupt bureaucracy, insufficient infrastructure development, heavy regulation, and high social spending. Meaningful reform has been hindered by domestic policies and parliamentary gridlock.    A critical component of India's economic reform will be its involvement in multilateral economic institutions. India has for 20 years shown an interest in joining the Asia-Pacific Economic Cooperation, or APEC, a regional organization that supports economic growth through free and open trade and investment, promoting regional integration and encouraging economic cooperation, among other things.    This has been an ambition that our Executive Branch has welcomed and encouraged. To assist in accelerating the relationship toward this goal, I plan on introducing a bill to support India's membership in APEC this week. Thanks to my colleague Mr. Bera, who has been working with me on putting this bill together.    Our two countries are also in the midst of discussions on a high-standards Bilateral Investment Treaty, or BIT. If achievable, the BIT would deepen our economic relationship and support economic growth and job creation in both countries.    These sorts of positive currents and potential achievements for Indian economic policy would illustrate a movement toward greater openness and harmonization with global free market principles that will be beneficial to India and the U.S.-India relationship and both of our economies.    Such reforms would pave the way to the accelerated growth India needs, and the increased openness would allow our countries to exploit our comparative advantages. Experts estimate that a successful BIT agreement, for example, could increase U.S. goods exports to India by 50 percent or more and could double service exports. A successful BIT could even pave the way forward toward a free trade agreement with India.    Despite the slow pace of reform, India's economy remains a bright spot amidst global economic troubles, particularly for developing nations. It is still the world's fastest-growing large economy, and I look forward to hearing about the U.S.-India economic relationship and the opportunities and challenges that encompass it, and how the United States can best support and nurture the bilateral economic relationship.    I would like to recognize Mr. Sherman for any opening statement he would like to have.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman. Thank you for holding this important hearing.    With a population of 1\\1/4\\ billion people, India is the world's largest democracy, the largest democracy in history. Some 550 million people voted in the last nationwide elections.    When you look at the people of India, you see that many have moved outside India to create a diaspora. Everywhere in the world that diaspora is considerably more educated and considerably wealthier than the country in which it is located. In fact, the only place you can go to find a poor person of Indian heritage is India. I am confident that, as India gets better governance, it will emerge as one of the richer countries in the world.    The United States and India share many core values, including religious pluralism, individual freedom, the rule of law, and electoral democracy, and both have rejected and are working together against radical Islamic extremism. The Indo-American community in the United States is a vital link between the two countries and has helped build bridges. New Delhi has played an important role in regional peace and security. Its growing economic power adds to its ability to deal with strategic issues.    India's growth path shows that it can be compared to China. I used to be a business advisor and now and then give free business advice to those of my constituents foolish enough to ask me for it, and I pointed out that an investment in India makes a lot more sense than one in China. In India you have the rule of law. In India you also have the long-term stability, messy as it is, of governing institutions.    The United States during the Great Depression showed that democracy can survive a 20-, 30-, even 40-percent decline in GDP. I do not think that a system of government built around a party that got power by claiming to be the vanguard of the proletariat, but now says it is not, could survive even zero-percent economic growth for a year or two. So, while China gives this image of stability, it does not have a system which could explain to its people why certain individuals hold positions of power.    Over the past decades, we have seen the U.S. work to bring India out from nuclear isolation and, of course, increase defense and security cooperation. The International Energy Administration estimates that India will require $2.1 trillion of investment in its power sector. Of course, India is looking to develop its own oil and natural gas resources and is seeking $25 billion of investment there. I want to do everything possible to make sure that the tremendous amount of equipment that is necessary for this power expansion is produced in America by American workers.    I was one of 83 Members of Congress, along with at least several people in this room, to urge that this House provide Prime Minister Modi with the highest honor we can provide a foreign leader, and that is an invitation to address a Joint Session of Congress. While the schedule couldn't be worked out last time, I look forward to hearing Prime Minister Modi while sitting on the House Floor.    We look forward to expanding our trade relationship, which is now at only $110 billion. I believe the Vice President and others have announced the goal of expanding that to $500 billion of bilateral trade.    But I will point out that this has got to be balanced trade, that the people of this country have, in case we haven't noticed, risen to totally repudiate the trade policies that we have followed so far, which are misnamed ``free trade.'' Every single Presidential candidate with over 150 delegates has absolutely repudiated the trade policy that has guided us over the last 20 years. Now some of them have done it rather reluctantly, but all of those who are still significant candidates have done so.    So, the people of this country look forward to expanding trade around the world on a balanced basis, not with the United States running huge trade deficits. It will take a completely different model of trade to achieve that. Those who come to the American people and just say all trade is good, no matter whether it is balanced or not, will be, have been utterly repudiated by the people of this country.    And I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412512</t>
   </si>
   <si>
+    <t>Bera</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bera. Sure. Thank you, Mr. Chairman and the ranking member.    I had a chance to travel to India with the chairman of the subcommittee as well as the chairman of the full committee last year and, then, recently returned to India a few months ago. And you still feel the sense of optimism in India, the sense that the economy, while it is not a straight shot, is still quite vigorous and vibrant.    I think the chairman's leadership on the resolution that we will be introducing this week to really encourage India's joining of APEC, that probably is the next logical step as they undergo the economic reforms and undergo much of the agenda that Prime Minister Modi has put out there.    For us to realize this potential that both the President and Vice President have said of creating the defining relationship in the 21st century and trying to take the bilateral trade from $100 billion to $500 billion, you know, APEC membership is a good next step. It will take us a little bit longer to get that high-standard Bilateral Investment Treaty, but that certainly is an aspirational goal for both countries and really can set the framework for bilateral trade.    Now, on our side, I urge patience. The economic reforms in India will take time. I think we have to look at this longer time horizon. On the Indian side, we encourage the Prime Minister to continue the economic reforms to ease the ability of our companies to do business, to put in good intellectual property and patent protections that don't hinder that investment and, also, to open up and ease the ability for U.S. resources and U.S. venture to help India realize its potential. I mean, these are all achievable goals. It requires patience on both sides of the Pacific. It requires open dialog. I remain very optimistic that we can reach those goals.    I look forward to hearing the testimony of witnesses who are all experts on this relationship.    Again, I will yield back.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>412560</t>
   </si>
   <si>
+    <t>Meng</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Mr. Chairman and to our ranking member.    Thank you to our witnesses who are here today to testify on U.S.-India relations. I represent one of the largest Indian-American diasporas in Congress.    The people-to-people relationship has been a driving force behind bringing our countries closer together. Under this President, our countries have grown closer and we share renewed commitment to working together, particularly in the economic sphere. Principles of our joint commitment were laid out first in September 2014, when U.S. and Indian leaders committed to expanding and deepening the strategic partnership in a vision statement entitled ``Chalein Saath Saath: Forward Together We Go.'' Following President Obama's second state visit to India in January 2015, we released a joint statement outlining extensive, detailed commitment in a variety of industries.    But, while it is clear that there is a deep interest and commitment on both sides, there is still a lot of groundwork we must do to realize this vision. I look forward to hearing from you on how you see the status of this commitment from India and how we can best address some of the existing challenges.    Thank you, and I yield back.</t>
   </si>
   <si>
@@ -85,6 +112,12 @@
     <t>412521</t>
   </si>
   <si>
+    <t>Lowenthal</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you, Mr. Chairman.    And thank you, witnesses, for joining us today.    Sitting on this committee, I realize just what an increasingly-complex world in which we live, but how interdependent we are with our global neighbors, how we look forward to working to promote peace, security, economic growth, development.    With India especially, representing such a huge population, proportion of the world's population, I want to know how we can both influence and effectively advance both our national interest and at the same time do that in a way that improves our relationships. You know, there are many challenges in front of us in the world, on this globe, and this committee sees them all. But I want to hear how we can in this committee and Congress support better relationships with India, how we can support their economic development, their democratic aspirations, and not just of India, but really the democratic aspirations of the entire region and how we can work together for that.    And I yield back.</t>
   </si>
   <si>
@@ -94,6 +127,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Ayres</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ayres. Chairman Salmon, Ranking Member Sherman, and members of the subcommittee, thank you very much for the invitation to appear before you today on U.S. economic ties with India. I am honored to be part of this distinguished panel.    I shared in advance with the committee a recent Council on Foreign Relations Independent Task Force report for which I served as project director. I respectfully request that the report and my more detailed written statement be submitted for the record.    In the last 15 years, India has experienced significant economic growth, and the bilateral economic relationship has changed substantially. After several years hovering below the $100-billion level, in 2014 two-way trade in goods and services crossed that threshold and last year reached $107 billion. U.S. exports to India now support more than 180,000 American jobs, as Secretary of Commerce Penny Pritzker said last year.    U.S.-India defense trade has increased from zero to around $13 billion cumulatively. Technology and entrepreneurship are increasingly a bridge between both countries. At the same time, U.S.-India trade remains well below its potential, only a little more than one-tenth U.S.-China trade in goods and more on the scale of Taiwan or the Netherlands.    India and the United States also have market access differences. I do not intend to minimize these concerns, for they certainly exist, but I will focus my remarks on the future strategic horizon we should bear in mind, India's future potential.    According to International Monetary Fund data, India's GDP crossed the $2-trillion threshold in 2014. At market exchange rates, India was the world's ninth largest economy that year, surpassing Russia. India is now growing at around 7.3 percent annually, which in 2015 made India the fastest-growing major economy in the world, given China's slowdown.    India, as you know, does not fare as well when looking at per-capita GDP. When looking at per capita at market exchange rates, India's nearly $1700 level ranks it in the bottom third. Still, the prospect for India's middle class to grow substantially in the coming decades is not in doubt. A strong economic base will allow India to continue on its path of rising global power, including by enabling its military modernization, making the country a bulwark of democracy and stability in an expanded region from the Middle East to East Asia, where both are not always in ample supply.    I referred to the Council on Foreign Relations Independent Task Force. One of its top findings was that, if India can maintain its current growth rate, let alone attain sustained double digits, it has the potential over the next 20 to 30 years to follow China on the path to becoming another $10-trillion economy. Few countries have such potential.    India has its own political work to do to realize these ambitions and it will not be easy. These are challenges that the United States can do little about, but we have a clear stake in India achieving its ambitions.    The Task Force recommended that the United States elevate support for India's economic growth and its reform process to the highest bilateral priority. I will provide several recommendations for how to do this at the end of my testimony.    Preparing the United States for a more global India. We have a problem of underinvestment and insufficient attention to India in United States higher education, an economic preparedness issue for our own country. The ranking of top study-abroad destinations tells an obvious story about American interest in Europe, but China has overtaken Germany as a destination. Nearly twice as many American students head to Costa Rica for an experience abroad than to India.    Language enrollment data is yet more dispiriting. Students in U.S. colleges and universities do not sign up for Indian languages at the levels they do for languages like Arabic, Chinese, or Korean. Here is an example: Enrollments for Hindi were only 1800. All Indian languages combined were around 3,000. This means that the total enrollments in all Indian languages combined account for less than one-quarter those of Korean.    Let me offer now a few recommendations for U.S. policy on these issues. First, elevate support for India's economic growth to the highest bilateral priority on the U.S. agenda with India. Steps recommended by the CFR-sponsored Independent Task Force report include leadership of a global diplomatic effort to support India's entry into APEC; completion of a Bilateral Investment Treaty; high-level discussion of bilateral sectoral agreements such as in services; identification of a longer-term pathway to a free trade agreement or Indian membership in an expanded TPP as an equivalent; creation of initiatives that respond to Indian interest in domestic reform needs such as technical advice on infrastructure finance, and continued emphasis on defense trade and technology.    Second, as India becomes an increasingly-central global economy, the United States should work to integrate India in global economic institutions. I mentioned APEC. There are other institutions in which India should become a member, such as the OECD and the International Energy Agency.    Finally, prepare our next generation for an India in the global economy. Review Federal funding incentives to encourage study abroad in India and study of Indian languages.    Thank you very much, and I look forward to questions.</t>
   </si>
   <si>
@@ -103,6 +139,9 @@
     <t>Enterprise Institute, based here in Washington, DC. My comments today are my own and do not necessarily reflect the views of     Since our time is limited, I would like to take this opportunity to make four broad points on which I will then elaborate.    Number one, the U.S.-India relationship is a pivotal relationship for the future of the Asia-Pacific and, indeed, the world.    Number two, at a time of political turbulence, it is important for us not to lose sight of the economic principles that have helped make this country the strongest and most prosperous in human history. These include an openness to trade and a welcome mat for talented professionals from around the world.    Number three, after the election of Prime Minister Narendra Modi 2 years ago, India is on the cusp of change. The U.S. cannot determine the policies India will follow, but, by the force of its example and its advocacy, it can nudge India in the direction of the policies that will grow its economy, eradicate poverty, and make it one of America's major global trade partners.    Finally, number four, U.S. economic policy toward India should be tethered to twin goals, to help India achieve its economic potential and to strive to remain India's top trading partner in goods and services.    I will spend the remainder of my time to expanding briefly upon each of these four points.    The first, of course, is that the U.S.-India relationship is pivotal. Sandwiched between a rising China and the turmoil of Afghanistan and Pakistan, India represents an anchor of democratic stability in an uncertain part of the world.    The U.S. stakes in India go beyond economics. But, arguably, no aspect of the relationship is more important than the economic one. Simply put, the U.S. ought to view the goal of making India prosperous in a way similar to which it viewed South Korea, Japan, and Taiwan during the Cold War. This is part of a larger strategic goal which is important to the United States, given what is unfolding in Asia.    In purchasing power priority terms, India is currently the third largest economy, but, as a U.S. trading partner, it is only number 10 in terms of goods trade. I think that gap between those two numbers, number three and number 10, really sums up the challenge that we face, but also the opportunity for further growth.    In terms of India's own potential, though it has had 25 years of rapid growth of about 6 percent a year, in terms of per-capita income it remains at $5,700 a year in purchasing power terms, which is, to put it in perspective, less than half of China. So, again, we have seen quite a dramatic success story over the past 25 years, but there remains a lot of potential for further growth.    I also think that we should keep sight of our larger principles, particularly at a time of turbulence. Arguably, now more than ever, we need to stand by the ideas that have been the bedrock of prosperity for more than 200 years. This means leading by example in terms of openness to trade in both goods and services, while at the same time ceaselessly advocating for greater economic freedom in India. I would like to say, in particular, that some of the debates about Indian tech firms tend to lose sight of the fact that they have been an asset for U.S. competitiveness and Indian tech workers have been productive members of society.    India is on the cusp of change. In 2014, Narendra Modi was elected Prime Minister with India's first single-party majority in 30 years. Mr. Modi earned the reputation as an efficient business-friendly administrator. He has embarked upon reforms, but those reforms have not gone fast enough for many observers. Nonetheless, he is less than 2 years into a 5-year term and he remains the single best bet for India to achieve the economic transformation that it ought to achieve. And it remains in the United States' interest to back him as he makes these efforts.    Finally, to sum up, I would say that all U.S. policy goals, including some of those mentioned by Dr. Ayres, such as backing India's APEC membership, supporting a Bilateral Investment Treaty, I would add to that finding a way to work with India's most dynamic states such as Gujarat and Andhra Pradesh, and also working to enlarge global economic institutions, all of these exist within a larger framework, and that larger framework is two twin ambitions. The first is to help India achieve its economic potential, and the second is to continue to be India's top trade partner in goods and services in the foreseeable future.    Thank you very much.    Mr. Salmon. Thank you.    Mr. Rossow?</t>
   </si>
   <si>
+    <t>Rossow</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rossow. Thank you, Chairman Salmon, Ranking Member Sherman, members of the committee. Thank you for the opportunity to testify at this hearing on U.S.-India economic relations.    I will focus my remarks on two main issues that I think must be addressed in order to deepen our economic partnership with India and create new opportunities for American firms. First is that we have to bridge this gap that exists in our approaches to global trade, and the second is we must engage India's regional leaders more directly.    Since Prime Minister Modi took office in 2014, our bilateral relationship has strengthened mightily, though I think in surprising ways, ways that we didn't expect to see. We expected the Modi government to have a strong economic focus, which it has within political limitations. But I think what you could have expected was the establishment of a stronger ideological framework guiding the continued expansion of our strategic partnership. We now have a big disparity, shared security goals that guide that strategic partnership, highlighted I think by the Joint Strategic Vision on Asia-Pacific and the Indian Ocean Region signed last year. But we don't have a similar ideological construct that guides our economic engagement.    Now kind of following on what others have stated before me, but a few examples that highlight the lack of a common ground on global economic issues, today we are no further along than we were 8 years on signing this investment treaty; in fact, a little bit further away, since both the United States and India have amended our model treaties which I think take them further away than they were at the outset.    India is not part of any of the wider trade agreements that the United States is a party of, and a wide chasm remains between our positions on many issues in the World Trade Organization. Now, in truth, I think it is likely that the Indian Government will only begin to approach global trade talks more proactively once their agriculture and manufacturing industries become more globally competitive. The two sectors make up 70 percent of India's workforce, yet contribute only about 45 percent of India's GDP.    But there are a wider range of shared interests. Both countries are hotbeds of innovation. We both have strong services economies. Both have large net trade deficits, particularly with China. We face similar challenges in the way that we have been engaging on global trade issues, and our firms bring complementary to markets like sub-Saharan Africa. I think there is actually a foundation of issues that could create a bit of a more powerful economic narrative on why we should be partners rather than constantly fighting on these big global issues.    The second issue I want to highlight is the importance of developing a more robust whole-of-government strategy to engage India's powerful state regional leaders. State governments--I mean, I have already heard it a number of times today about Modi reform, has he done enough; has he not done enough?--state governments actually have a much deeper control on India's business environment outside of things like high-level market access than national leaders do. Issues like electricity, water, sanitation, infrastructure, industrial licenses, and law and order, these are all issues that the states actually govern far more than the Federal Government has a hand in.    India's two national parties, Congress and BJP, combined only control 16 of India's 29 states right now. With a few notable exceptions, most of these state leaders actually have very little vision today for what partnership with the United States looks like.    In addition to the strong impact on the local business environment, regional parties in India also have a strong influence on central government policymaking. Regional parties hold the majority of seats in the upper house of India's Parliament.    Also, while we talk about the BJP's electoral victory in the 2014 national election, it is the first time in 30 years that any party won a single-party majority in the lower house of Parliament. We can expect that in the not-too-distant future we will see coalition governments again, and these regional parties played a dramatic influence on policymaking in the last government under coalition governments.    Now taking a step back, I think the Modi government's track record on reforms is somewhat underappreciated. From the U.S. viewpoint, the day that he stepped into office there were four main areas of contention in our economic relationship: Contentious taxation policies; lack of progress on new market access reforms, particularly foreign equity caps; treatment of pharmaceutical patents, and the establishment of forced local content rules in several manufacturing sectors. Those are the four that I saw as really kind of driving the negative sentiments and the hope when Modi stepped into office.    I think 2 years later we have actually seen robust movement on cross-border taxation policies and at the same time dramatic improvement on foreign equity limitations. About 30 sectors have actually seen foreign equity limitations removed or lessened somewhat since he came into office, but we have seen less movement on local content rules in manufacturing and patent laws.    Now these are, of course, the economic agenda as it matters to American firms and policymakers. There are also other reforms that I think haven't been appreciated on this side of the ocean, but in terms of growing the Indian economy and providing new opportunities for American firms would do so. Liberalizing the oil and gas sector; they liberalized the coal sector; transparent auctions for the first time with public resources like spectrum and mining licenses; delicensing defense production of the private sector.    These reforms and India's relatively-high growth rates compared to other countries I think make it an important market to American firms, as has already been stated. Now our economic relationship going forward will benefit from forging a set of shared principles behind global economic issues and for better engagement with India's powerful state leaders.    I was also asked by the committee to offer a couple of recommendations for this committee and for Congress. And so, two things that I have in mind on that.    First, I think the pipeline of congressional visits is terrific, and I think using that kind of an opportunity to engage some of these regional leaders, as what happened with Prime Minister Modi, in fact, before he became the leader of the country, is important to maintain and build on, not just Delhi and Bengal and Bombay, but some of the other regional capitals as well.    Second, we have an election coming up. As I like to joke, you don't become Secretary of State based on your policy toward India. So, we don't really know what the next administration, whoever it is, what their position is going to be on key issues in India. But Congress will still be there, and there is going to be an important role to make sure that we maintain quickly and deeply with India after the election takes place.    So, thank you again for inviting me to appear before the subcommittee.</t>
   </si>
   <si>
@@ -130,6 +169,9 @@
     <t xml:space="preserve">    Ms. Ayres. I think, first of all, having the platform of Make in India is, first and foremost, designed to attract foreign direct investment into India. A lot of American companies that are manufacturing in India are taking advantage of that. So, it is actually helpful to the larger revenue of some American companies.    For example, General Motors announced $1-billion investment and a relocation of a factory last summer. Ford has one of their largest manufacturing facilities anywhere in the world in Gujarat. There is a long list of others.    Since the Make in India initiative was announced in September 2014, there has been a trickle of major investment announcements. And so, I think we would have to look at kind of individual sectors to see if there was anything that would preclude or prohibit or limit U.S. exports to India. So, I don't think it is possible to answer that in a blanket, kind of umbrella statement.    But, certainly, it is the case that this is a platform that is helpful to some American manufacturers who are looking to produce for this huge and growing Indian market.</t>
   </si>
   <si>
+    <t>Dhume</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Dhume. Let me take a quick stab at both of those. On the e-commerce, I would agree with what Rick said. It is important to keep in perspective that India's e-commerce market is one of the most interesting and one of the fastest-growing in the world. There was a statistic recently I saw which said that the top three e-commerce sites in India do more business than the top ten offline retailers combined. One of those top three is Amazon.</t>
   </si>
   <si>
@@ -253,6 +295,12 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chabot. I have no idea.</t>
   </si>
   <si>
@@ -320,6 +368,12 @@
   </si>
   <si>
     <t>412532</t>
+  </si>
+  <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Aloha. Welcome.    Since 2008, the U.S. and India have signed more than $10 billion in defense contracts, and the Defense Trade and Technology Initiative has been a priority in these bilateral security relations. Especially now with Secretary Carter as our Secretary of Defense, I think this has continued to be a priority.    Can you speak to your assessment of how the DTTI is working and, if there are impediments, what are they and how can they be overcome?</t>
@@ -704,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,7 +766,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,2333 +788,2745 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G52" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G56" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G64" t="s">
+        <v>93</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G66" t="s">
+        <v>93</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G68" t="s">
+        <v>93</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G70" t="s">
+        <v>93</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G72" t="s">
+        <v>93</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G73" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G74" t="s">
+        <v>93</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
+        <v>32</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G80" t="s">
+        <v>51</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G83" t="s">
+        <v>51</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
+        <v>51</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G85" t="s">
+        <v>32</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G87" t="s">
+        <v>118</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>101</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G89" t="s">
+        <v>118</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G90" t="s">
+        <v>51</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>101</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G91" t="s">
+        <v>118</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G92" t="s">
+        <v>41</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>101</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G93" t="s">
+        <v>118</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
       <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
       <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99469.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99469.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>412512</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Bera</t>
@@ -758,7 +770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,7 +778,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,2742 +803,2960 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" t="s">
-        <v>51</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>55</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" t="s">
-        <v>41</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" t="s">
-        <v>41</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G64" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G66" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G68" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" t="s">
-        <v>51</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>55</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G70" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G72" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" t="s">
-        <v>41</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G74" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" t="s">
-        <v>37</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
-      </c>
-      <c r="G80" t="s">
-        <v>51</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>55</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" t="s">
-        <v>41</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H82" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" t="s">
-        <v>51</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>55</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" t="s">
-        <v>51</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H85" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G87" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="H87" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" t="s">
-        <v>37</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>41</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G89" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="H89" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G90" t="s">
-        <v>51</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>55</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G91" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" t="s">
-        <v>41</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>45</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G93" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>131</v>
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
